--- a/data/samples/FHIR_Full_Profilesv2.xlsx
+++ b/data/samples/FHIR_Full_Profilesv2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="51" documentId="8_{B8A78245-5086-43DC-A310-D82D9EE1DFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA25B127-E969-4E60-9ECE-9017F695756D}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="0" windowWidth="34725" windowHeight="13500" xr2:uid="{B0B9398A-9B99-4AF9-8105-1C1C550ECF27}"/>
+    <workbookView minimized="1" xWindow="10155" yWindow="1890" windowWidth="26610" windowHeight="13500" xr2:uid="{B0B9398A-9B99-4AF9-8105-1C1C550ECF27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3315,7 +3315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3343,16 +3343,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3375,6 +3366,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3697,8 +3692,8 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,16 +4173,16 @@
       <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -4216,10 +4211,6 @@
       <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
       <c r="I18" s="1" t="s">
         <v>70</v>
       </c>
@@ -4246,10 +4237,6 @@
       <c r="D19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
         <v>77</v>
       </c>
@@ -4276,10 +4263,6 @@
       <c r="D20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
       <c r="I20" s="1" t="s">
         <v>79</v>
       </c>
@@ -4306,10 +4289,10 @@
       <c r="D21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="1" t="s">
         <v>86</v>
       </c>
@@ -4336,10 +4319,10 @@
       <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="1" t="s">
         <v>86</v>
       </c>
@@ -4366,10 +4349,10 @@
       <c r="D23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="1" t="s">
         <v>96</v>
       </c>
@@ -4918,7 +4901,7 @@
       <c r="B40" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>218</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4933,7 +4916,7 @@
       <c r="G40" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="13" t="s">
         <v>226</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -4945,7 +4928,7 @@
       <c r="K40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="12" t="s">
         <v>217</v>
       </c>
       <c r="M40" s="1" t="s">
